--- a/Burton5_Roster_and_Birthdays.xlsx
+++ b/Burton5_Roster_and_Birthdays.xlsx
@@ -2166,8 +2166,8 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3002,7 +3002,7 @@
         <v>207</v>
       </c>
       <c r="E28" s="9">
-        <v>42627</v>
+        <v>42490</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>209</v>

--- a/Burton5_Roster_and_Birthdays.xlsx
+++ b/Burton5_Roster_and_Birthdays.xlsx
@@ -1740,7 +1740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1832,6 +1832,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2166,8 +2168,8 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2915,7 +2917,9 @@
       <c r="C25" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="69">
+        <v>42423</v>
+      </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="17" t="s">
@@ -3086,6 +3090,9 @@
       </c>
       <c r="C31" s="20" t="s">
         <v>255</v>
+      </c>
+      <c r="E31" s="70">
+        <v>42402</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="7"/>
@@ -3111,7 +3118,7 @@
       <c r="D32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="54"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="7" t="s">
         <v>293</v>
       </c>
@@ -3165,7 +3172,7 @@
         <v>310</v>
       </c>
       <c r="D34" s="58"/>
-      <c r="E34" s="54"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -3299,6 +3306,9 @@
       <c r="C39" s="19" t="s">
         <v>360</v>
       </c>
+      <c r="E39" s="68">
+        <v>42083</v>
+      </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="17" t="s">
@@ -3687,7 +3697,9 @@
         <v>496</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="15"/>
+      <c r="E52" s="15">
+        <v>42555</v>
+      </c>
       <c r="F52" s="17"/>
       <c r="G52" s="40"/>
       <c r="H52" s="17"/>

--- a/Burton5_Roster_and_Birthdays.xlsx
+++ b/Burton5_Roster_and_Birthdays.xlsx
@@ -2168,8 +2168,8 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3195,7 +3195,9 @@
         <v>329</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15">
+        <v>42573</v>
+      </c>
       <c r="F35" s="17"/>
       <c r="G35" s="10"/>
       <c r="H35" s="7"/>

--- a/Burton5_Roster_and_Birthdays.xlsx
+++ b/Burton5_Roster_and_Birthdays.xlsx
@@ -1740,7 +1740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1833,7 +1833,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2168,8 +2167,8 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3064,7 +3063,7 @@
         <v>264</v>
       </c>
       <c r="E30" s="9">
-        <v>42086</v>
+        <v>42037</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>265</v>
@@ -3091,8 +3090,8 @@
       <c r="C31" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E31" s="70">
-        <v>42402</v>
+      <c r="E31" s="41">
+        <v>42087</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="7"/>
@@ -3118,7 +3117,9 @@
       <c r="D32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="41">
+        <v>42498</v>
+      </c>
       <c r="F32" s="7" t="s">
         <v>293</v>
       </c>
